--- a/DB/엑셀/gym.xlsx
+++ b/DB/엑셀/gym.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>trainer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>trainer_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
   </si>
   <si>
     <t>board_category_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pt_member_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pt_contents</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,10 +140,6 @@
   </si>
   <si>
     <t>pt_round</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt_cousume_round</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -224,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>member_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>첨부파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -302,7 +282,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>member_grade</t>
+    <r>
+      <t>pt_member_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainer_member_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,9 +449,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1">
@@ -739,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,7 +776,7 @@
     <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -765,262 +784,250 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DB/엑셀/gym.xlsx
+++ b/DB/엑셀/gym.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -325,6 +325,140 @@
   </si>
   <si>
     <t>board_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default - 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default - 제목없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_program_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_member_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_trainer_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archar(45)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>longtext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_contents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_total_limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default - 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_course_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_period</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>program_price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +586,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,11 +909,11 @@
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="8" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
@@ -806,8 +943,11 @@
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -829,8 +969,11 @@
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -838,7 +981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -849,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -860,7 +1003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -868,17 +1011,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -888,7 +1031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -908,12 +1051,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -923,17 +1066,20 @@
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -952,13 +1098,22 @@
       <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
       <c r="G20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -966,21 +1121,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
@@ -994,7 +1149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1002,21 +1157,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1028,6 +1183,107 @@
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
